--- a/Swing/swingAlts.xlsx
+++ b/Swing/swingAlts.xlsx
@@ -52,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,12 +137,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A4 B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
